--- a/leaves.xlsx
+++ b/leaves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28704"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB153C6-F66A-4CA4-9B0E-FE8921314151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4741DA05-C71A-46C3-B8EF-80C80AAAAFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="-120" windowWidth="26550" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10531" r:id="rId6"/>
+    <pivotCache cacheId="7625" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3465,7 +3465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B66F707C-8992-4519-B73D-0D1FD149CE08}" name="PivotTable1" cacheId="10531" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B66F707C-8992-4519-B73D-0D1FD149CE08}" name="PivotTable1" cacheId="7625" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:AB10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -4466,7 +4466,7 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9591,10 +9591,10 @@
         <v>97</v>
       </c>
       <c r="B153" s="6">
-        <v>45719</v>
+        <v>45723</v>
       </c>
       <c r="C153" s="6">
-        <v>45719</v>
+        <v>45723</v>
       </c>
       <c r="D153" t="s">
         <v>173</v>
@@ -10390,6 +10390,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B6ACEAF246F2B46A041A18722FEE209" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7490f9ff0cc8dad3375cce53d31dcae4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8e07e06-0d21-431c-93c0-4d710044d107" xmlns:ns3="0c13697c-8f1d-48df-a39b-99cba9ac2348" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38df88f3dc8f563cf7470d5a4763be24" ns2:_="" ns3:_="">
     <xsd:import namespace="a8e07e06-0d21-431c-93c0-4d710044d107"/>
@@ -10618,15 +10627,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10639,11 +10639,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09EBB87B-CC95-49C0-A830-B6C91C781586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44BD219B-E348-444C-B0FB-EBA762A983DF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44BD219B-E348-444C-B0FB-EBA762A983DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09EBB87B-CC95-49C0-A830-B6C91C781586}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
